--- a/example/Output_FI_radii_Diadfit_fitted_2025-11-19.xlsx
+++ b/example/Output_FI_radii_Diadfit_fitted_2025-11-19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoregon-my.sharepoint.com/personal/ccauley_uoregon_edu/Documents/Lab_Work/Olivine Deformation/Raman/WITio_FI_radii/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_514DBF2F880E4F4FA77F3B46F3012D16118A8E8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62AA53F2-6094-8C44-BFCE-753BBF523FAB}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_514DBF2F880E4F4FA77F3B46F3012D16118A8E8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD6F8C85-8215-BF44-B5CA-4EF92E30E180}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="123">
   <si>
     <t>Var1</t>
   </si>
@@ -37,9 +37,6 @@
     <t>G_U20-2_10_42_01</t>
   </si>
   <si>
-    <t>G_U20-1_15_24_01</t>
-  </si>
-  <si>
     <t>Corrected_Splitting</t>
   </si>
   <si>
@@ -50,9 +47,6 @@
   </si>
   <si>
     <t>SupCrit, low density</t>
-  </si>
-  <si>
-    <t>SupCrit, Med density</t>
   </si>
   <si>
     <t>LowD_RT</t>
@@ -269,10 +263,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">4:40:55 PM
-</t>
-  </si>
-  <si>
     <t>Peak_Cent_SO2</t>
   </si>
   <si>
@@ -337,9 +327,6 @@
   </si>
   <si>
     <t>primary, minor melt, round</t>
-  </si>
-  <si>
-    <t>primary, minor melt, round, isolated</t>
   </si>
   <si>
     <t>Density g/cm3</t>
@@ -774,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CZ5"/>
+  <dimension ref="A1:CZ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CH1" workbookViewId="0">
-      <selection activeCell="CI14" sqref="CI14"/>
+    <sheetView tabSelected="1" topLeftCell="CI1" workbookViewId="0">
+      <selection activeCell="CI5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -882,310 +869,310 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>105</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>106</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>107</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>108</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>109</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>110</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>111</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>112</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" t="s">
         <v>113</v>
       </c>
-      <c r="M1" t="s">
+      <c r="U1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" t="s">
         <v>114</v>
       </c>
-      <c r="N1" t="s">
+      <c r="W1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" t="s">
         <v>115</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Y1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" t="s">
         <v>116</v>
       </c>
-      <c r="P1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="AB1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BZ1" t="s">
         <v>117</v>
       </c>
-      <c r="U1" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="CA1" t="s">
+        <v>72</v>
+      </c>
+      <c r="CB1" t="s">
         <v>118</v>
       </c>
-      <c r="W1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="CC1" t="s">
+        <v>73</v>
+      </c>
+      <c r="CD1" t="s">
         <v>119</v>
       </c>
-      <c r="Y1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA1" t="s">
+      <c r="CE1" t="s">
         <v>120</v>
       </c>
-      <c r="AB1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>121</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>74</v>
-      </c>
-      <c r="CB1" t="s">
+      <c r="CF1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CZ1" t="s">
         <v>122</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>75</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>123</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>124</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>102</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:104" x14ac:dyDescent="0.2">
@@ -1232,10 +1219,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S2">
         <v>0.1295938738376492</v>
@@ -1256,7 +1243,7 @@
         <v>3.0445066855215729E-3</v>
       </c>
       <c r="Y2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z2">
         <v>103.31095828415209</v>
@@ -1292,7 +1279,7 @@
         <v>1.1497172654477059</v>
       </c>
       <c r="AK2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL2">
         <v>1388.6583288059271</v>
@@ -1325,7 +1312,7 @@
         <v>1.0160228238997511</v>
       </c>
       <c r="AV2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AW2">
         <v>1265.148204608894</v>
@@ -1370,19 +1357,19 @@
         <v>1.041716034820803E-3</v>
       </c>
       <c r="BT2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BU2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BV2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BW2" t="s">
         <v>68</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BX2" t="s">
         <v>70</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>72</v>
       </c>
       <c r="BY2">
         <v>18</v>
@@ -1397,10 +1384,10 @@
         <v>50</v>
       </c>
       <c r="CC2" t="s">
+        <v>74</v>
+      </c>
+      <c r="CD2" t="s">
         <v>76</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>78</v>
       </c>
       <c r="CE2">
         <v>49711</v>
@@ -1415,7 +1402,7 @@
         <v>158.81483702875451</v>
       </c>
       <c r="CI2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="CO2">
         <v>0.1142307297287086</v>
@@ -1492,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S3">
         <v>0.1162489492579724</v>
@@ -1516,7 +1503,7 @@
         <v>3.3823344558842339E-3</v>
       </c>
       <c r="Y3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z3">
         <v>103.2771609190825</v>
@@ -1552,7 +1539,7 @@
         <v>1.130886228387719</v>
       </c>
       <c r="AK3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL3">
         <v>1388.713548592011</v>
@@ -1585,7 +1572,7 @@
         <v>0.99358294285237891</v>
       </c>
       <c r="AV3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AW3">
         <v>1265.245708448344</v>
@@ -1630,19 +1617,19 @@
         <v>7.9373371905700103E-4</v>
       </c>
       <c r="BT3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BU3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BV3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BW3" t="s">
         <v>68</v>
       </c>
-      <c r="BW3" t="s">
+      <c r="BX3" t="s">
         <v>70</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>72</v>
       </c>
       <c r="BY3">
         <v>18</v>
@@ -1657,10 +1644,10 @@
         <v>50</v>
       </c>
       <c r="CC3" t="s">
+        <v>75</v>
+      </c>
+      <c r="CD3" t="s">
         <v>77</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>79</v>
       </c>
       <c r="CE3">
         <v>50443</v>
@@ -1684,7 +1671,7 @@
         <v>9</v>
       </c>
       <c r="CY3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="CZ3">
         <v>12.135461142828078</v>
@@ -1734,10 +1721,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S4">
         <v>6.0401258873447723E-2</v>
@@ -1758,7 +1745,7 @@
         <v>8.0771931176779888E-3</v>
       </c>
       <c r="Y4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z4">
         <v>103.135768790642</v>
@@ -1794,7 +1781,7 @@
         <v>1.0690155791358751</v>
       </c>
       <c r="AK4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL4">
         <v>1388.9361491464001</v>
@@ -1827,7 +1814,7 @@
         <v>0.85524063095933645</v>
       </c>
       <c r="AV4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BL4">
         <v>1.137931034482222</v>
@@ -1854,19 +1841,19 @@
         <v>2.8749924468600232E-3</v>
       </c>
       <c r="BT4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BU4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BV4" t="s">
+        <v>66</v>
+      </c>
+      <c r="BW4" t="s">
         <v>68</v>
       </c>
-      <c r="BW4" t="s">
+      <c r="BX4" t="s">
         <v>70</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>72</v>
       </c>
       <c r="BY4">
         <v>18</v>
@@ -1881,10 +1868,10 @@
         <v>50</v>
       </c>
       <c r="CC4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="CD4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="CE4">
         <v>52800</v>
@@ -1899,7 +1886,7 @@
         <v>335.77080327183057</v>
       </c>
       <c r="CM4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="CN4">
         <v>0.49970271755882151</v>
@@ -1929,249 +1916,10 @@
         <v>17</v>
       </c>
       <c r="CY4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="CZ4">
         <v>2.4486506512695536</v>
-      </c>
-    </row>
-    <row r="5" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>0.24105693213459739</v>
-      </c>
-      <c r="D5">
-        <v>4.8603355029758896E-3</v>
-      </c>
-      <c r="E5">
-        <v>4.2492900993238436E-3</v>
-      </c>
-      <c r="F5">
-        <v>2.3593208457681758E-3</v>
-      </c>
-      <c r="G5">
-        <v>103.3428979123054</v>
-      </c>
-      <c r="H5">
-        <v>1.0238678594672781E-2</v>
-      </c>
-      <c r="I5">
-        <v>6.1428905550542368E-4</v>
-      </c>
-      <c r="J5">
-        <v>1.0243350550958499E-2</v>
-      </c>
-      <c r="K5">
-        <v>9.9949999999999992</v>
-      </c>
-      <c r="L5">
-        <v>1324.9639999999999</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5" t="s">
-        <v>7</v>
-      </c>
-      <c r="P5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S5">
-        <v>0.23482872176238351</v>
-      </c>
-      <c r="T5">
-        <v>5.9285352246299479E-3</v>
-      </c>
-      <c r="U5">
-        <v>0.24105693213459739</v>
-      </c>
-      <c r="V5">
-        <v>4.8603355029758896E-3</v>
-      </c>
-      <c r="W5">
-        <v>0.13759372280833301</v>
-      </c>
-      <c r="X5">
-        <v>7.0599478614569184E-3</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z5">
-        <v>103.5766405522763</v>
-      </c>
-      <c r="AA5">
-        <v>1.0243350550958499E-2</v>
-      </c>
-      <c r="AB5">
-        <v>1284.7058279058331</v>
-      </c>
-      <c r="AC5">
-        <v>9.3540328555422794E-3</v>
-      </c>
-      <c r="AD5">
-        <v>295.56648917961559</v>
-      </c>
-      <c r="AE5">
-        <v>1284.7058279058331</v>
-      </c>
-      <c r="AF5">
-        <v>619.13161109185421</v>
-      </c>
-      <c r="AG5">
-        <v>0.75882212481210376</v>
-      </c>
-      <c r="AH5">
-        <v>3.5441048203587648</v>
-      </c>
-      <c r="AI5">
-        <v>0.70977048254207409</v>
-      </c>
-      <c r="AJ5">
-        <v>1.517644249624208</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL5">
-        <v>1388.282518460609</v>
-      </c>
-      <c r="AM5">
-        <v>4.1747215293067496E-3</v>
-      </c>
-      <c r="AN5">
-        <v>578.3288484778908</v>
-      </c>
-      <c r="AO5">
-        <v>1388.282468458109</v>
-      </c>
-      <c r="AP5">
-        <v>949.90831104611493</v>
-      </c>
-      <c r="AQ5">
-        <v>0.60111846727186813</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>3.666016618182586</v>
-      </c>
-      <c r="AT5">
-        <v>0.68534359450329707</v>
-      </c>
-      <c r="AU5">
-        <v>1.202236934543736</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AZ5">
-        <v>1409.7323718551791</v>
-      </c>
-      <c r="BA5">
-        <v>79.946860529341393</v>
-      </c>
-      <c r="BB5">
-        <v>0.74008809974584544</v>
-      </c>
-      <c r="BL5">
-        <v>1.0334821428570371</v>
-      </c>
-      <c r="BM5">
-        <v>1.128712871287078</v>
-      </c>
-      <c r="BN5">
-        <v>5.0813981572077907E-2</v>
-      </c>
-      <c r="BO5">
-        <v>5.1346966086603142E-3</v>
-      </c>
-      <c r="BP5">
-        <v>1.228985507246277</v>
-      </c>
-      <c r="BQ5">
-        <v>1.243478260869598</v>
-      </c>
-      <c r="BR5">
-        <v>0.27529483428670598</v>
-      </c>
-      <c r="BS5">
-        <v>2.07881197299411E-3</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>65</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>65</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>68</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>70</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>72</v>
-      </c>
-      <c r="BY5">
-        <v>18</v>
-      </c>
-      <c r="BZ5">
-        <v>60</v>
-      </c>
-      <c r="CA5">
-        <v>4</v>
-      </c>
-      <c r="CB5">
-        <v>50</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>76</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>81</v>
-      </c>
-      <c r="CE5">
-        <v>60055</v>
-      </c>
-      <c r="CP5">
-        <v>60055</v>
-      </c>
-      <c r="CQ5">
-        <v>0.99774328807417845</v>
-      </c>
-      <c r="CR5">
-        <v>0.9977373573058872</v>
-      </c>
-      <c r="CS5">
-        <v>0.9977492188424697</v>
-      </c>
-      <c r="CT5">
-        <v>27</v>
-      </c>
-      <c r="CU5">
-        <v>31</v>
-      </c>
-      <c r="CV5">
-        <v>29</v>
-      </c>
-      <c r="CW5">
-        <v>25</v>
-      </c>
-      <c r="CY5" t="s">
-        <v>104</v>
-      </c>
-      <c r="CZ5">
-        <v>6.5978602353278815</v>
       </c>
     </row>
   </sheetData>
